--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-DE456232.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-DE456232.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E75906-3987-4E2C-BA24-7174BA6489D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD0264-4C3C-425E-8B18-36352F20792B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{1010F6FF-92C8-43CD-AA7E-44767D8F9BFB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Concierge Services</t>
   </si>
@@ -33,25 +33,28 @@
     <t>CAD</t>
   </si>
   <si>
+    <t>Beverages and Catering</t>
+  </si>
+  <si>
+    <t>Various paper supplies</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>Waste management services</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
     <t>IT Support</t>
-  </si>
-  <si>
-    <t>Beverages and Catering</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>Various paper supplies</t>
-  </si>
-  <si>
-    <t>RON</t>
-  </si>
-  <si>
-    <t>Waste management services</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36A0DC1-70D2-4DE0-9C0F-C688D3976815}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,232 +415,301 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>639639</v>
+        <v>348767</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>42777</v>
+        <v>159466</v>
       </c>
       <c r="D1">
-        <v>56424</v>
+        <v>31893.200000000001</v>
       </c>
       <c r="E1">
-        <v>11284.8</v>
-      </c>
-      <c r="F1">
-        <v>67708.800000000003</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
+        <v>191359</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42800</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>528113</v>
+        <v>635402</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>42835</v>
+        <v>36327</v>
       </c>
       <c r="D2">
-        <v>22012</v>
+        <v>7265.4</v>
       </c>
       <c r="E2">
-        <v>4402.3999999999996</v>
-      </c>
-      <c r="F2">
-        <v>26414.400000000001</v>
-      </c>
-      <c r="G2" t="s">
+        <v>43592.4</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>42890</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>593686</v>
+        <v>740221</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>42881</v>
+        <v>100537</v>
       </c>
       <c r="D3">
-        <v>56585</v>
+        <v>20107.400000000001</v>
       </c>
       <c r="E3">
-        <v>11317</v>
-      </c>
-      <c r="F3">
-        <v>67902</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
+        <v>120644</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42900</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>147388</v>
+        <v>532461</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>42874</v>
+        <v>46612</v>
       </c>
       <c r="D4">
-        <v>251703</v>
+        <v>9322.4</v>
       </c>
       <c r="E4">
-        <v>50340.6</v>
-      </c>
-      <c r="F4">
-        <v>302044</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
+        <v>55934.400000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42932</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>522089</v>
+        <v>550444</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>42975</v>
+        <v>145487</v>
       </c>
       <c r="D5">
-        <v>144257</v>
+        <v>29097.4</v>
       </c>
       <c r="E5">
-        <v>28851.4</v>
-      </c>
-      <c r="F5">
-        <v>173108</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
+        <v>174584</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42922</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>394623</v>
+        <v>324720</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>42985</v>
+        <v>14369</v>
       </c>
       <c r="D6">
-        <v>130506</v>
+        <v>2873.8</v>
       </c>
       <c r="E6">
-        <v>26101.200000000001</v>
-      </c>
-      <c r="F6">
-        <v>156607</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
+        <v>17242.8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42951</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>772026</v>
+        <v>382308</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>43012</v>
+        <v>293743</v>
       </c>
       <c r="D7">
-        <v>118278</v>
+        <v>58748.6</v>
       </c>
       <c r="E7">
-        <v>23655.599999999999</v>
-      </c>
-      <c r="F7">
-        <v>141934</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
+        <v>352492</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43031</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>306274</v>
+        <v>339714</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>43031</v>
+        <v>138920</v>
       </c>
       <c r="D8">
-        <v>226954</v>
+        <v>27784</v>
       </c>
       <c r="E8">
-        <v>45390.8</v>
-      </c>
-      <c r="F8">
-        <v>272345</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
+        <v>166704</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43062</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>168240</v>
+        <v>259097</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>43089</v>
+        <v>121624</v>
       </c>
       <c r="D9">
-        <v>106831</v>
+        <v>24324.799999999999</v>
       </c>
       <c r="E9">
-        <v>21366.2</v>
-      </c>
-      <c r="F9">
-        <v>128197</v>
-      </c>
-      <c r="G9" t="s">
+        <v>145949</v>
+      </c>
+      <c r="F9" t="s">
         <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43087</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>719837</v>
+        <v>963434</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
+        <v>216556</v>
+      </c>
+      <c r="D10">
+        <v>43311.199999999997</v>
+      </c>
+      <c r="E10">
+        <v>259867</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>419900</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>199951</v>
+      </c>
+      <c r="D11">
+        <v>39990.199999999997</v>
+      </c>
+      <c r="E11">
+        <v>239941</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>237237</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>139753</v>
+      </c>
+      <c r="D12">
+        <v>27950.6</v>
+      </c>
+      <c r="E12">
+        <v>167704</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
         <v>43081</v>
       </c>
-      <c r="D10">
-        <v>279170</v>
-      </c>
-      <c r="E10">
-        <v>55834</v>
-      </c>
-      <c r="F10">
-        <v>335004</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>772212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>168661</v>
+      </c>
+      <c r="D13">
+        <v>33732.199999999997</v>
+      </c>
+      <c r="E13">
+        <v>202393</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>43086</v>
       </c>
     </row>
   </sheetData>
